--- a/kClist/Result/result.xlsx
+++ b/kClist/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gawssin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8B1A52A-70D6-497B-8DA3-D631589BEBBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3CE52FE-FD0D-46B0-B62B-22AC972D34F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B057552F-D38C-4CD0-B264-0A4C8ED1EFE9}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>k value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m24s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1m48s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8m53s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>as-skitter, 24 threads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,27 +83,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m7s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7m43s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11m39s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m22s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9m13s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out.com-dblp, 24 threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m21s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m43s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m23s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m29s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14m27s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34m58s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16m3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21m54s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m31s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out.orkut-links, 24 threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39m32s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22m4s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,9 +230,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86605410-D1C4-4133-8024-3DB868ED9969}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,98 +574,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1">
         <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>28769868</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
+      <c r="B4" s="1">
+        <v>148834439</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
+      <c r="B5" s="1">
+        <v>1183885507</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6</v>
       </c>
+      <c r="B6" s="1">
+        <v>9759000981</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -600,19 +711,16 @@
         <v>73142566591</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -623,24 +731,520 @@
         <v>481576204696</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2781731674867</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2224385</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16713192</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>262663639</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4221802226</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>60913718813</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>777232734905</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8813264533265</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>627577371</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>75233426735</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kClist/Result/result.xlsx
+++ b/kClist/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gawssin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3CE52FE-FD0D-46B0-B62B-22AC972D34F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBA1F8DF-A4B1-48D3-9E94-E428412851A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B057552F-D38C-4CD0-B264-0A4C8ED1EFE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>k value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>22m4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h20m38s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h24m45s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h4m4s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86605410-D1C4-4133-8024-3DB868ED9969}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +580,7 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
@@ -766,6 +778,17 @@
         <v>39</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14217188170569</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
@@ -1011,6 +1034,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>89563892212629</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
@@ -1240,6 +1274,17 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>30264644732858</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>

--- a/kClist/Result/result.xlsx
+++ b/kClist/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gawssin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBA1F8DF-A4B1-48D3-9E94-E428412851A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1DBF371-964A-4729-A369-83BAD9F49D16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B057552F-D38C-4CD0-B264-0A4C8ED1EFE9}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t>k value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m48s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0_Node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,18 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11m33s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9m13s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1m21s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +180,205 @@
   </si>
   <si>
     <t>4h4m4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h29m33s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h57m55s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h58m1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4m21s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m24s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29m2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m25s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m28s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h57m56s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h58m53s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h23m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szu8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szu4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38m1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40m38s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m27s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m53s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m50s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m29s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m34s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m39s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>szu5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,12 +403,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +442,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86605410-D1C4-4133-8024-3DB868ED9969}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,82 +779,90 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" s="1">
         <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -667,10 +873,10 @@
         <v>28769868</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -681,10 +887,10 @@
         <v>148834439</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -695,10 +901,10 @@
         <v>1183885507</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -708,11 +914,14 @@
       <c r="B6" s="1">
         <v>9759000981</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -722,17 +931,14 @@
       <c r="B7" s="1">
         <v>73142566591</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -743,19 +949,13 @@
         <v>481576204696</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -766,16 +966,16 @@
         <v>2781731674867</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -786,81 +986,93 @@
         <v>14217188170569</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="2">
         <v>3</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" s="2">
         <v>4</v>
       </c>
       <c r="P15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -870,19 +1082,39 @@
       <c r="B16" s="2">
         <v>2224385</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -895,19 +1127,39 @@
       <c r="B17" s="2">
         <v>16713192</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -920,19 +1172,39 @@
       <c r="B18" s="2">
         <v>262663639</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -945,19 +1217,39 @@
       <c r="B19" s="2">
         <v>4221802226</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -970,25 +1262,51 @@
       <c r="B20" s="2">
         <v>60913718813</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -997,23 +1315,33 @@
       <c r="B21" s="2">
         <v>777232734905</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
@@ -1024,14 +1352,35 @@
       <c r="B22" s="1">
         <v>8813264533265</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1042,246 +1391,632 @@
         <v>89563892212629</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6672876</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>111</v>
+      </c>
+      <c r="B26" s="3">
+        <v>240464</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="A27" s="3">
+        <v>112</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6441</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1">
+        <v>114</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>115</v>
+      </c>
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="M35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>627577371</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="B39" s="2">
+        <v>75233426735</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>7</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>8</v>
       </c>
-      <c r="L28" s="2">
-        <v>3</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>9</v>
       </c>
-      <c r="O28" s="2">
-        <v>4</v>
-      </c>
-      <c r="P28" s="2" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2">
-        <v>627577371</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2">
-        <v>75233426735</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>7</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="B43" s="1">
         <v>30264644732858</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1289,7 +2024,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kClist/Result/result.xlsx
+++ b/kClist/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gawssin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1DBF371-964A-4729-A369-83BAD9F49D16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05023DD4-9AC8-487F-9627-C0D66255B157}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B057552F-D38C-4CD0-B264-0A4C8ED1EFE9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="154">
   <si>
     <t>k value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,22 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>szu8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szu6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>szu4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31m40s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,8 +362,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>szu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5h42m38s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h24m5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h3m3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h55m27s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h18m56s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h51m59s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h6m26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h56m36s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m24s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m17s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m43s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h0m25s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m45s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m47s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h3m29s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28m28s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27m7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32m28s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32m19s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32m45s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29m9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31m8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29m28s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43m45s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44m13s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14m36s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m56s</t>
+  </si>
+  <si>
+    <t>4m42s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m34s</t>
+  </si>
+  <si>
+    <t>23s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19m17s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19m23s</t>
+  </si>
+  <si>
+    <t>15m10s</t>
+  </si>
+  <si>
+    <t>15s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7m22s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m14s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m39s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7m28s</t>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m29s</t>
+  </si>
+  <si>
+    <t>3m37s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2m26s</t>
+  </si>
+  <si>
+    <t>4m27s</t>
+  </si>
+  <si>
+    <t>27s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14m6s</t>
   </si>
 </sst>
 </file>
@@ -403,26 +654,100 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -431,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,16 +766,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86605410-D1C4-4133-8024-3DB868ED9969}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,20 +1122,22 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4"/>
@@ -810,199 +1155,468 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="7">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="7">
         <v>4</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>28769868</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>148834439</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>1183885507</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>9759000981</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>73142566591</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>481576204696</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>2781731674867</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="K9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="N9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>14217188170569</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4"/>
@@ -1020,765 +1634,857 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="7">
         <v>3</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="7">
         <v>4</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>2224385</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16713192</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7">
+        <v>262663639</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4221802226</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>60913718813</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
+        <v>777232734905</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7">
+        <v>8813264533265</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7">
+        <v>89563892212629</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>110</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6672876</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>111</v>
+      </c>
+      <c r="B26" s="7">
+        <v>240464</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="K26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16713192</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>262663639</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4221802226</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2">
-        <v>60913718813</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>777232734905</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8813264533265</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
-        <v>89563892212629</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>110</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6672876</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>112</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6441</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="J27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>111</v>
-      </c>
-      <c r="B26" s="3">
-        <v>240464</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="P27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>113</v>
+      </c>
+      <c r="B28" s="7">
+        <v>114</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="O28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>114</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="K29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="N29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>115</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="K30" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>112</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6441</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="N30" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>113</v>
-      </c>
-      <c r="B28" s="1">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>114</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>115</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>74</v>
+      <c r="O30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="4"/>
@@ -1796,229 +2502,242 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>0</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="7">
         <v>2</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="7">
         <v>3</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="7">
         <v>4</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="P35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="7">
         <v>627577371</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="8"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="7">
         <v>75233426735</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>10</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="11">
         <v>30264644732858</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
